--- a/analysis/pre_gemini_data/participant340/hard.xlsx
+++ b/analysis/pre_gemini_data/participant340/hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,157 +422,153 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>except</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>exept</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>externa;</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>extranl</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal4</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>litral3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methdocall</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodddec</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
@@ -796,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
@@ -889,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>556</v>
+        <v>386</v>
       </c>
       <c r="Z5" t="n">
         <v>25</v>
@@ -982,7 +966,7 @@
         <v>1618.38</v>
       </c>
       <c r="Y6" t="n">
-        <v>208120.04</v>
+        <v>155414.04</v>
       </c>
       <c r="Z6" t="n">
         <v>13647.9</v>
@@ -1010,90 +994,90 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E7" t="n">
-        <v>6.14</v>
+        <v>8.09</v>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>3.82</v>
       </c>
       <c r="G7" t="n">
-        <v>26.61</v>
+        <v>35.08</v>
       </c>
       <c r="H7" t="n">
-        <v>21.17</v>
+        <v>27.92</v>
       </c>
       <c r="I7" t="n">
-        <v>3.66</v>
+        <v>4.82</v>
       </c>
       <c r="J7" t="n">
-        <v>5.47</v>
+        <v>7.22</v>
       </c>
       <c r="K7" t="n">
-        <v>13.05</v>
+        <v>17.21</v>
       </c>
       <c r="L7" t="n">
-        <v>2.51</v>
+        <v>3.31</v>
       </c>
       <c r="M7" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="N7" t="n">
-        <v>1.94</v>
+        <v>2.55</v>
       </c>
       <c r="O7" t="n">
-        <v>2.28</v>
+        <v>3.01</v>
       </c>
       <c r="P7" t="n">
         <v>26.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="R7" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="W7" t="n">
-        <v>2.26</v>
+        <v>2.98</v>
       </c>
       <c r="X7" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.58</v>
+        <v>32.08</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="AA7" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD7" t="n">
         <v>2.29</v>
       </c>
-      <c r="AB7" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1.74</v>
-      </c>
       <c r="AE7" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8">
@@ -1168,7 +1152,7 @@
         <v>269.73</v>
       </c>
       <c r="Y8" t="n">
-        <v>374.32</v>
+        <v>402.63</v>
       </c>
       <c r="Z8" t="n">
         <v>545.92</v>
